--- a/progetto/results/randomMergeHeapPython/quickSampleMedianSelect.xlsx
+++ b/progetto/results/randomMergeHeapPython/quickSampleMedianSelect.xlsx
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -364,7 +364,7 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>0.02093505859375</v>
+        <v>0.01429009437561035</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>1500</v>
       </c>
       <c r="B3">
-        <v>0.01669979095458984</v>
+        <v>0.0145258903503418</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>0.0208888053894043</v>
+        <v>0.01926088333129883</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>2500</v>
       </c>
       <c r="B5">
-        <v>0.04464840888977051</v>
+        <v>0.0305335521697998</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>3000</v>
       </c>
       <c r="B6">
-        <v>0.03282976150512695</v>
+        <v>0.03078269958496094</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>3500</v>
       </c>
       <c r="B7">
-        <v>0.0396568775177002</v>
+        <v>0.03738117218017578</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>4000</v>
       </c>
       <c r="B8">
-        <v>0.05467772483825684</v>
+        <v>0.04104709625244141</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>4500</v>
       </c>
       <c r="B9">
-        <v>0.06740522384643555</v>
+        <v>0.04645729064941406</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>5000</v>
       </c>
       <c r="B10">
-        <v>0.05707931518554688</v>
+        <v>0.05087995529174805</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>5500</v>
       </c>
       <c r="B11">
-        <v>0.06470847129821777</v>
+        <v>0.05877876281738281</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>6000</v>
       </c>
       <c r="B12">
-        <v>0.09309959411621094</v>
+        <v>0.07930088043212891</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>6500</v>
       </c>
       <c r="B13">
-        <v>0.1302659511566162</v>
+        <v>0.07001972198486328</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>7000</v>
       </c>
       <c r="B14">
-        <v>0.1052706241607666</v>
+        <v>0.07947731018066406</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>7500</v>
       </c>
       <c r="B15">
-        <v>0.08666896820068359</v>
+        <v>0.08448100090026855</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>8000</v>
       </c>
       <c r="B16">
-        <v>0.08988761901855469</v>
+        <v>0.08563113212585449</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8500</v>
       </c>
       <c r="B17">
-        <v>0.09811663627624513</v>
+        <v>0.09092187881469728</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9000</v>
       </c>
       <c r="B18">
-        <v>0.1014506816864014</v>
+        <v>0.0957338809967041</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>9500</v>
       </c>
       <c r="B19">
-        <v>0.1653990745544434</v>
+        <v>0.1016216278076172</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>10000</v>
       </c>
       <c r="B20">
-        <v>0.1215803623199463</v>
+        <v>0.1092398166656494</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>11000</v>
       </c>
       <c r="B21">
-        <v>0.1282861232757569</v>
+        <v>0.1273734569549561</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>12000</v>
       </c>
       <c r="B22">
-        <v>0.1458468437194824</v>
+        <v>0.134307861328125</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>13000</v>
       </c>
       <c r="B23">
-        <v>0.1566059589385987</v>
+        <v>0.1407544612884521</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>14000</v>
       </c>
       <c r="B24">
-        <v>0.1689357757568359</v>
+        <v>0.1566174030303955</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>15000</v>
       </c>
       <c r="B25">
-        <v>0.1794087886810303</v>
+        <v>0.1674125194549561</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>16000</v>
       </c>
       <c r="B26">
-        <v>0.1984784603118896</v>
+        <v>0.1773149967193604</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>17000</v>
       </c>
       <c r="B27">
-        <v>0.2076983451843261</v>
+        <v>0.1899862289428711</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>18000</v>
       </c>
       <c r="B28">
-        <v>0.2428011894226074</v>
+        <v>0.2110714912414551</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>19000</v>
       </c>
       <c r="B29">
-        <v>0.2914111614227295</v>
+        <v>0.2197751998901367</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>20000</v>
       </c>
       <c r="B30">
-        <v>0.3521699905395508</v>
+        <v>0.2273688316345215</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>21000</v>
       </c>
       <c r="B31">
-        <v>0.2664451599121094</v>
+        <v>0.248375415802002</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>22000</v>
       </c>
       <c r="B32">
-        <v>0.2733964920043945</v>
+        <v>0.2686073780059814</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>23000</v>
       </c>
       <c r="B33">
-        <v>0.2967898845672607</v>
+        <v>0.2748696804046631</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>24000</v>
       </c>
       <c r="B34">
-        <v>0.3444356918334961</v>
+        <v>0.2896418571472168</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>25000</v>
       </c>
       <c r="B35">
-        <v>0.4466996192932129</v>
+        <v>0.306964635848999</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>26000</v>
       </c>
       <c r="B36">
-        <v>0.4006664752960205</v>
+        <v>0.3267402648925781</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>27000</v>
       </c>
       <c r="B37">
-        <v>0.3676176071166992</v>
+        <v>0.3309369087219238</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>28000</v>
       </c>
       <c r="B38">
-        <v>0.3749363422393799</v>
+        <v>0.3445301055908203</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>29000</v>
       </c>
       <c r="B39">
-        <v>0.3802804946899414</v>
+        <v>0.3501739501953125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>30000</v>
       </c>
       <c r="B40">
-        <v>0.3893110752105713</v>
+        <v>0.3683459758758545</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>31000</v>
       </c>
       <c r="B41">
-        <v>0.6104390621185303</v>
+        <v>0.3701841831207275</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>32000</v>
       </c>
       <c r="B42">
-        <v>0.4285163879394531</v>
+        <v>0.3837459087371826</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>33000</v>
       </c>
       <c r="B43">
-        <v>0.4182906150817871</v>
+        <v>0.409698486328125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>34000</v>
       </c>
       <c r="B44">
-        <v>0.4261488914489746</v>
+        <v>0.4012880325317383</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>35000</v>
       </c>
       <c r="B45">
-        <v>0.4495856761932373</v>
+        <v>0.4218318462371826</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>36000</v>
       </c>
       <c r="B46">
-        <v>0.4610114097595215</v>
+        <v>0.437474250793457</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>37000</v>
       </c>
       <c r="B47">
-        <v>0.4835038185119629</v>
+        <v>0.4437248706817627</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>38000</v>
       </c>
       <c r="B48">
-        <v>0.484050989151001</v>
+        <v>0.4589083194732666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>39000</v>
       </c>
       <c r="B49">
-        <v>0.5016894340515137</v>
+        <v>0.4667637348175049</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>40000</v>
       </c>
       <c r="B50">
-        <v>0.5161855220794678</v>
+        <v>0.481602668762207</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>41000</v>
       </c>
       <c r="B51">
-        <v>0.5365340709686279</v>
+        <v>0.5003604888916016</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42000</v>
       </c>
       <c r="B52">
-        <v>0.5417017936706543</v>
+        <v>0.5163140296936035</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>43000</v>
       </c>
       <c r="B53">
-        <v>0.5535290241241455</v>
+        <v>0.5225009918212891</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>44000</v>
       </c>
       <c r="B54">
-        <v>0.5692658424377441</v>
+        <v>0.5449132919311523</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45000</v>
       </c>
       <c r="B55">
-        <v>0.6021633148193359</v>
+        <v>0.5516440868377686</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>46000</v>
       </c>
       <c r="B56">
-        <v>0.6181724071502686</v>
+        <v>0.5659401416778564</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>47000</v>
       </c>
       <c r="B57">
-        <v>0.6207277774810791</v>
+        <v>0.5781958103179932</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>48000</v>
       </c>
       <c r="B58">
-        <v>0.6354911327362061</v>
+        <v>0.6067714691162109</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>49000</v>
       </c>
       <c r="B59">
-        <v>0.6615643501281738</v>
+        <v>0.6060519218444824</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>50000</v>
       </c>
       <c r="B60">
-        <v>0.6723580360412598</v>
+        <v>0.6322615146636963</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>55000</v>
       </c>
       <c r="B61">
-        <v>0.7342519760131836</v>
+        <v>0.7091660499572754</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>60000</v>
       </c>
       <c r="B62">
-        <v>0.7810952663421631</v>
+        <v>0.753190279006958</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>65000</v>
       </c>
       <c r="B63">
-        <v>0.8569149971008301</v>
+        <v>0.8131039142608643</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>70000</v>
       </c>
       <c r="B64">
-        <v>0.9196560382843018</v>
+        <v>0.8743262290954591</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>75000</v>
       </c>
       <c r="B65">
-        <v>0.9751622676849364</v>
+        <v>0.9554555416107178</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>80000</v>
       </c>
       <c r="B66">
-        <v>1.065959215164185</v>
+        <v>1.002471685409546</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>85000</v>
       </c>
       <c r="B67">
-        <v>1.126048564910889</v>
+        <v>1.096184015274048</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>90000</v>
       </c>
       <c r="B68">
-        <v>1.235881567001343</v>
+        <v>1.133997678756714</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,15 +900,7 @@
         <v>95000</v>
       </c>
       <c r="B69">
-        <v>1.295881986618042</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>100000</v>
-      </c>
-      <c r="B70">
-        <v>1.400189161300659</v>
+        <v>1.250787019729614</v>
       </c>
     </row>
   </sheetData>
